--- a/tabular/eve/epv-erythyro-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-side-data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1872B6E9-976E-154C-BF34-769ADE7EAF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAFEB5C-5F53-314C-8366-FEAE20D3337A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="6960" windowWidth="26840" windowHeight="15940" xr2:uid="{69467B59-43A4-7448-839A-2DB24B0F14CE}"/>
+    <workbookView xWindow="3160" yWindow="6600" windowWidth="26840" windowHeight="15940" xr2:uid="{69467B59-43A4-7448-839A-2DB24B0F14CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="88">
   <si>
     <t>Erythro_214503_Indri</t>
   </si>
@@ -282,6 +283,21 @@
   </si>
   <si>
     <t>record_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>locus_name</t>
+  </si>
+  <si>
+    <t>locus_numeric_id</t>
+  </si>
+  <si>
+    <t>erythro.1-indri</t>
+  </si>
+  <si>
+    <t>erythro.2-dolichotis</t>
   </si>
 </sst>
 </file>
@@ -689,1004 +705,1118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7C8E2F-AF11-F148-ABE4-1513B7258C22}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="A1:T16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W4" sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>214503</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>121873</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>123297</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>1425</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>291</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>41.146999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>214316</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>124597</v>
+      </c>
+      <c r="Q3">
+        <v>126126</v>
+      </c>
+      <c r="R3">
+        <v>1530</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>358</v>
+      </c>
+      <c r="W3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>127793</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4">
+        <v>30224</v>
+      </c>
+      <c r="Q4">
+        <v>30983</v>
+      </c>
+      <c r="R4">
+        <v>760</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4">
+        <v>151</v>
+      </c>
+      <c r="W4">
+        <v>44.828000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B5CCC-66B9-A545-815C-EB4EC1369289}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>69003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2">
+        <v>483</v>
+      </c>
+      <c r="R2">
+        <v>1172</v>
+      </c>
+      <c r="S2">
+        <v>690</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2">
+        <v>205</v>
+      </c>
+      <c r="X2">
+        <v>47.787999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>66903</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>124597</v>
-      </c>
-      <c r="N3">
-        <v>126126</v>
-      </c>
-      <c r="O3">
-        <v>1530</v>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
       </c>
       <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>694</v>
+      </c>
+      <c r="S3">
+        <v>675</v>
+      </c>
+      <c r="T3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>13</v>
       </c>
-      <c r="S3">
-        <v>358</v>
-      </c>
-      <c r="T3">
-        <v>40</v>
+      <c r="W3">
+        <v>202</v>
+      </c>
+      <c r="X3">
+        <v>47.320999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>127842</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>206</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>204</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>25</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>75.5</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>48.529000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>127829</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>267</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>267</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>15</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>25</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>68.900000000000006</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>53.845999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>127830</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>364</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>363</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>15</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>13</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>134</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>54.463999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>127831</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>67</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>381</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>315</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>25</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>119</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>52.381</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>127832</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>34</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>299</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>294</v>
       </c>
-      <c r="P8" t="s">
+      <c r="T8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U8" t="s">
         <v>15</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>13</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>72.8</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>35.713999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>127833</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>238</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>237</v>
       </c>
-      <c r="P9" t="s">
+      <c r="T9" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="U9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
         <v>13</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>86.7</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>53.521000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>127835</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>291</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>291</v>
       </c>
-      <c r="P10" t="s">
+      <c r="T10" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="U10" t="s">
         <v>15</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>25</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>107</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>53.933</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>127836</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>7</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>40</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>80</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>373</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>294</v>
       </c>
-      <c r="P11" t="s">
+      <c r="T11" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="U11" t="s">
         <v>15</v>
       </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>25</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>73.2</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>35.713999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>127837</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>42</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>299</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>294</v>
       </c>
-      <c r="P12" t="s">
+      <c r="T12" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="U12" t="s">
         <v>15</v>
       </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>13</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>72.8</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>35.713999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>127840</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>23</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>44</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>101</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>394</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>294</v>
       </c>
-      <c r="P13" t="s">
+      <c r="T13" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="U13" t="s">
         <v>15</v>
       </c>
-      <c r="R13" t="s">
+      <c r="V13" t="s">
         <v>25</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>73.2</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>35.713999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>127793</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14">
-        <v>30224</v>
-      </c>
-      <c r="N14">
-        <v>30983</v>
-      </c>
-      <c r="O14">
-        <v>760</v>
-      </c>
-      <c r="P14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14">
-        <v>151</v>
-      </c>
-      <c r="T14">
-        <v>44.828000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>69003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15">
-        <v>483</v>
-      </c>
-      <c r="N15">
-        <v>1172</v>
-      </c>
-      <c r="O15">
-        <v>690</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15">
-        <v>205</v>
-      </c>
-      <c r="T15">
-        <v>47.787999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>66903</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>694</v>
-      </c>
-      <c r="O16">
-        <v>675</v>
-      </c>
-      <c r="P16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16">
-        <v>202</v>
-      </c>
-      <c r="T16">
-        <v>47.320999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-erythyro-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAFEB5C-5F53-314C-8366-FEAE20D3337A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B22871-043B-E94C-9682-4AA177FC4DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="6600" windowWidth="26840" windowHeight="15940" xr2:uid="{69467B59-43A4-7448-839A-2DB24B0F14CE}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="88">
-  <si>
-    <t>Erythro_214503_Indri</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Indri_indri</t>
   </si>
@@ -78,9 +75,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>Erythro_214316_Indri</t>
-  </si>
-  <si>
     <t>VP</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>PITC01120563.1</t>
   </si>
   <si>
-    <t>Erythro_127793_Dolichotis</t>
-  </si>
-  <si>
     <t>Dolichotis_patagonum</t>
   </si>
   <si>
@@ -294,10 +285,25 @@
     <t>locus_numeric_id</t>
   </si>
   <si>
-    <t>erythro.1-indri</t>
-  </si>
-  <si>
-    <t>erythro.2-dolichotis</t>
+    <t>erythyro.1-indri</t>
+  </si>
+  <si>
+    <t>erythyro.2-dolichotis</t>
+  </si>
+  <si>
+    <t>Human-erythyrovirus-V9</t>
+  </si>
+  <si>
+    <t>Erythyro_214503_Indri</t>
+  </si>
+  <si>
+    <t>Erythyroparvovirus</t>
+  </si>
+  <si>
+    <t>Erythyro_214316_Indri</t>
+  </si>
+  <si>
+    <t>Erythyro_127793_Dolichotis</t>
   </si>
 </sst>
 </file>
@@ -707,81 +713,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7C8E2F-AF11-F148-ABE4-1513B7258C22}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W4" sqref="A1:W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -789,43 +795,43 @@
         <v>214503</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
       </c>
       <c r="P2">
         <v>121873</v>
@@ -837,13 +843,13 @@
         <v>1425</v>
       </c>
       <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>12</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
       </c>
       <c r="V2">
         <v>291</v>
@@ -857,43 +863,43 @@
         <v>214316</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
       <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
       </c>
       <c r="P3">
         <v>124597</v>
@@ -905,13 +911,13 @@
         <v>1530</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3">
         <v>358</v>
@@ -925,43 +931,43 @@
         <v>127793</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
       </c>
       <c r="P4">
         <v>30224</v>
@@ -973,13 +979,13 @@
         <v>760</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" t="s">
         <v>12</v>
-      </c>
-      <c r="U4" t="s">
-        <v>13</v>
       </c>
       <c r="V4">
         <v>151</v>
@@ -1005,74 +1011,74 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1080,37 +1086,37 @@
         <v>69003</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" t="s">
-        <v>60</v>
       </c>
       <c r="Q2">
         <v>483</v>
@@ -1122,13 +1128,13 @@
         <v>690</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W2">
         <v>205</v>
@@ -1142,37 +1148,37 @@
         <v>66903</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -1184,13 +1190,13 @@
         <v>675</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W3">
         <v>202</v>
@@ -1204,37 +1210,37 @@
         <v>127842</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1246,13 +1252,13 @@
         <v>204</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W4">
         <v>75.5</v>
@@ -1266,37 +1272,37 @@
         <v>127829</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1308,13 +1314,13 @@
         <v>267</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W5">
         <v>68.900000000000006</v>
@@ -1328,37 +1334,37 @@
         <v>127830</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1370,13 +1376,13 @@
         <v>363</v>
       </c>
       <c r="T6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6">
         <v>134</v>
@@ -1390,37 +1396,37 @@
         <v>127831</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q7">
         <v>67</v>
@@ -1432,13 +1438,13 @@
         <v>315</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W7">
         <v>119</v>
@@ -1452,37 +1458,37 @@
         <v>127832</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -1494,13 +1500,13 @@
         <v>294</v>
       </c>
       <c r="T8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W8">
         <v>72.8</v>
@@ -1514,37 +1520,37 @@
         <v>127833</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>23</v>
-      </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -1556,13 +1562,13 @@
         <v>237</v>
       </c>
       <c r="T9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W9">
         <v>86.7</v>
@@ -1576,37 +1582,37 @@
         <v>127835</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1618,13 +1624,13 @@
         <v>291</v>
       </c>
       <c r="T10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W10">
         <v>107</v>
@@ -1638,37 +1644,37 @@
         <v>127836</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>23</v>
-      </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>80</v>
@@ -1680,13 +1686,13 @@
         <v>294</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W11">
         <v>73.2</v>
@@ -1700,37 +1706,37 @@
         <v>127837</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>23</v>
-      </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -1742,13 +1748,13 @@
         <v>294</v>
       </c>
       <c r="T12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W12">
         <v>72.8</v>
@@ -1762,37 +1768,37 @@
         <v>127840</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>21</v>
       </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>23</v>
-      </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q13">
         <v>101</v>
@@ -1804,13 +1810,13 @@
         <v>294</v>
       </c>
       <c r="T13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W13">
         <v>73.2</v>

--- a/tabular/eve/epv-erythyro-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7C47C8-2E70-9C44-9363-3A0C115DC5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E171C47-F0B7-AD46-A177-36B5501563B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="8520" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21400" yWindow="7880" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_result" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>host_species</t>
   </si>
@@ -139,9 +139,6 @@
     <t>PVJX010011861.1</t>
   </si>
   <si>
-    <t>erythryo.2-Dolichotis_patagonum</t>
-  </si>
-  <si>
     <t>Indri_indri</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>RJWJ010000280.1</t>
   </si>
   <si>
-    <t>erythryo.1-indri</t>
-  </si>
-  <si>
     <t>sequenceID</t>
   </si>
   <si>
@@ -181,13 +175,19 @@
     <t>erythyro.1-Indri_indri</t>
   </si>
   <si>
-    <t>erythryo.2</t>
-  </si>
-  <si>
-    <t>erythryo.1</t>
-  </si>
-  <si>
-    <t>erythryo.2-dolichotis</t>
+    <t>erythyro.2-Dolichotis_patagonum</t>
+  </si>
+  <si>
+    <t>erythyro.2-dolichotis</t>
+  </si>
+  <si>
+    <t>erythyro.1-indri</t>
+  </si>
+  <si>
+    <t>erythyro.1</t>
+  </si>
+  <si>
+    <t>erythyro.2</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:AE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,19 +1063,19 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1157,20 +1157,20 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>10</v>
+      <c r="A2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>31</v>
@@ -1252,14 +1252,14 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>175</v>
+      <c r="A3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>29</v>
@@ -1337,13 +1337,13 @@
         <v>32</v>
       </c>
       <c r="AC3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-erythyro-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E171C47-F0B7-AD46-A177-36B5501563B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54917D59-449E-754B-A268-C4F58BAAC671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21400" yWindow="7880" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
